--- a/research/semiconfined_df_particle_Modflow.xlsx
+++ b/research/semiconfined_df_particle_Modflow.xlsx
@@ -404,7 +404,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>redox_zone</t>
+          <t>redox</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -414,12 +414,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>thickness_layer</t>
+          <t>travel_distance</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>porosity_layer</t>
+          <t>porosity</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>solid_density_layer</t>
+          <t>solid_density</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="K5" t="n">
-        <v>40</v>
+        <v>5.45045333054815</v>
       </c>
       <c r="L5" t="n">
         <v>0.35</v>
@@ -825,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="K9" t="n">
-        <v>40</v>
+        <v>17.23584680498276</v>
       </c>
       <c r="L9" t="n">
         <v>0.35</v>
@@ -1025,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="K13" t="n">
-        <v>40</v>
+        <v>54.5045333054815</v>
       </c>
       <c r="L13" t="n">
         <v>0.35</v>
@@ -1225,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="K17" t="n">
-        <v>40</v>
+        <v>121.875841552958</v>
       </c>
       <c r="L17" t="n">
         <v>0.35</v>
@@ -1425,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="K21" t="n">
-        <v>40</v>
+        <v>172.3584680498276</v>
       </c>
       <c r="L21" t="n">
         <v>0.35</v>
@@ -1625,7 +1625,7 @@
         <v>11</v>
       </c>
       <c r="K25" t="n">
-        <v>40</v>
+        <v>243.7516831059159</v>
       </c>
       <c r="L25" t="n">
         <v>0.35</v>
@@ -1825,7 +1825,7 @@
         <v>11</v>
       </c>
       <c r="K29" t="n">
-        <v>40</v>
+        <v>298.5336237770383</v>
       </c>
       <c r="L29" t="n">
         <v>0.35</v>
@@ -2025,7 +2025,7 @@
         <v>11</v>
       </c>
       <c r="K33" t="n">
-        <v>40</v>
+        <v>344.7169360996551</v>
       </c>
       <c r="L33" t="n">
         <v>0.35</v>
@@ -2225,7 +2225,7 @@
         <v>11</v>
       </c>
       <c r="K37" t="n">
-        <v>40</v>
+        <v>385.40525105714</v>
       </c>
       <c r="L37" t="n">
         <v>0.35</v>
@@ -2425,7 +2425,7 @@
         <v>11</v>
       </c>
       <c r="K41" t="n">
-        <v>40</v>
+        <v>422.1902995698748</v>
       </c>
       <c r="L41" t="n">
         <v>0.35</v>
@@ -2625,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="K45" t="n">
-        <v>40</v>
+        <v>456.0176428159155</v>
       </c>
       <c r="L45" t="n">
         <v>0.35</v>
@@ -2825,7 +2825,7 @@
         <v>11</v>
       </c>
       <c r="K49" t="n">
-        <v>40</v>
+        <v>487.5033662118318</v>
       </c>
       <c r="L49" t="n">
         <v>0.35</v>
@@ -3025,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="K53" t="n">
-        <v>40</v>
+        <v>517.0754041494827</v>
       </c>
       <c r="L53" t="n">
         <v>0.35</v>
@@ -3225,7 +3225,7 @@
         <v>11</v>
       </c>
       <c r="K57" t="n">
-        <v>40</v>
+        <v>545.045333054815</v>
       </c>
       <c r="L57" t="n">
         <v>0.35</v>
@@ -3425,7 +3425,7 @@
         <v>11</v>
       </c>
       <c r="K61" t="n">
-        <v>40</v>
+        <v>571.6483679617371</v>
       </c>
       <c r="L61" t="n">
         <v>0.35</v>
@@ -3625,7 +3625,7 @@
         <v>11</v>
       </c>
       <c r="K65" t="n">
-        <v>40</v>
+        <v>597.0672475540766</v>
       </c>
       <c r="L65" t="n">
         <v>0.35</v>
@@ -3825,7 +3825,7 @@
         <v>11</v>
       </c>
       <c r="K69" t="n">
-        <v>40</v>
+        <v>621.447294314075</v>
       </c>
       <c r="L69" t="n">
         <v>0.35</v>
@@ -4025,7 +4025,7 @@
         <v>11</v>
       </c>
       <c r="K73" t="n">
-        <v>40</v>
+        <v>644.9063351516777</v>
       </c>
       <c r="L73" t="n">
         <v>0.35</v>
@@ -4225,7 +4225,7 @@
         <v>11</v>
       </c>
       <c r="K77" t="n">
-        <v>40</v>
+        <v>667.5414763348052</v>
       </c>
       <c r="L77" t="n">
         <v>0.35</v>
@@ -4425,7 +4425,7 @@
         <v>11</v>
       </c>
       <c r="K81" t="n">
-        <v>40</v>
+        <v>689.4338721993103</v>
       </c>
       <c r="L81" t="n">
         <v>0.35</v>
@@ -4625,7 +4625,7 @@
         <v>11</v>
       </c>
       <c r="K85" t="n">
-        <v>40</v>
+        <v>710.6521692390858</v>
       </c>
       <c r="L85" t="n">
         <v>0.35</v>
@@ -4825,7 +4825,7 @@
         <v>11</v>
       </c>
       <c r="K89" t="n">
-        <v>40</v>
+        <v>731.2550493177478</v>
       </c>
       <c r="L89" t="n">
         <v>0.35</v>
@@ -5025,7 +5025,7 @@
         <v>11</v>
       </c>
       <c r="K93" t="n">
-        <v>40</v>
+        <v>751.2931442926822</v>
       </c>
       <c r="L93" t="n">
         <v>0.35</v>
@@ -5225,7 +5225,7 @@
         <v>11</v>
       </c>
       <c r="K97" t="n">
-        <v>40</v>
+        <v>770.81050211428</v>
       </c>
       <c r="L97" t="n">
         <v>0.35</v>
@@ -5425,7 +5425,7 @@
         <v>11</v>
       </c>
       <c r="K101" t="n">
-        <v>40</v>
+        <v>789.8457265049625</v>
       </c>
       <c r="L101" t="n">
         <v>0.35</v>
@@ -5625,7 +5625,7 @@
         <v>11</v>
       </c>
       <c r="K105" t="n">
-        <v>40</v>
+        <v>808.4328748799342</v>
       </c>
       <c r="L105" t="n">
         <v>0.35</v>
@@ -5825,7 +5825,7 @@
         <v>11</v>
       </c>
       <c r="K109" t="n">
-        <v>40</v>
+        <v>826.6021743832512</v>
       </c>
       <c r="L109" t="n">
         <v>0.35</v>
@@ -6025,7 +6025,7 @@
         <v>11</v>
       </c>
       <c r="K113" t="n">
-        <v>40</v>
+        <v>844.3805991397495</v>
       </c>
       <c r="L113" t="n">
         <v>0.35</v>
@@ -6225,7 +6225,7 @@
         <v>11</v>
       </c>
       <c r="K117" t="n">
-        <v>40</v>
+        <v>861.7923402491377</v>
       </c>
       <c r="L117" t="n">
         <v>0.35</v>
@@ -6425,7 +6425,7 @@
         <v>11</v>
       </c>
       <c r="K121" t="n">
-        <v>40</v>
+        <v>878.8591919190293</v>
       </c>
       <c r="L121" t="n">
         <v>0.35</v>
@@ -6625,7 +6625,7 @@
         <v>11</v>
       </c>
       <c r="K125" t="n">
-        <v>40</v>
+        <v>895.6008713311152</v>
       </c>
       <c r="L125" t="n">
         <v>0.35</v>
@@ -6825,7 +6825,7 @@
         <v>11</v>
       </c>
       <c r="K129" t="n">
-        <v>40</v>
+        <v>912.0352856318312</v>
       </c>
       <c r="L129" t="n">
         <v>0.35</v>
@@ -7025,7 +7025,7 @@
         <v>11</v>
       </c>
       <c r="K133" t="n">
-        <v>40</v>
+        <v>928.1787563535482</v>
       </c>
       <c r="L133" t="n">
         <v>0.35</v>
@@ -7225,7 +7225,7 @@
         <v>11</v>
       </c>
       <c r="K137" t="n">
-        <v>40</v>
+        <v>944.04620927924</v>
       </c>
       <c r="L137" t="n">
         <v>0.35</v>
@@ -7425,7 +7425,7 @@
         <v>11</v>
       </c>
       <c r="K141" t="n">
-        <v>40</v>
+        <v>959.6513360398068</v>
       </c>
       <c r="L141" t="n">
         <v>0.35</v>
@@ -7625,7 +7625,7 @@
         <v>11</v>
       </c>
       <c r="K145" t="n">
-        <v>40</v>
+        <v>975.0067324236636</v>
       </c>
       <c r="L145" t="n">
         <v>0.35</v>
@@ -7825,7 +7825,7 @@
         <v>11</v>
       </c>
       <c r="K149" t="n">
-        <v>40</v>
+        <v>990.1240173735575</v>
       </c>
       <c r="L149" t="n">
         <v>0.35</v>
@@ -8025,7 +8025,7 @@
         <v>11</v>
       </c>
       <c r="K153" t="n">
-        <v>40</v>
+        <v>1005.013935867775</v>
       </c>
       <c r="L153" t="n">
         <v>0.35</v>
@@ -8225,7 +8225,7 @@
         <v>11</v>
       </c>
       <c r="K157" t="n">
-        <v>40</v>
+        <v>1019.686448275606</v>
       </c>
       <c r="L157" t="n">
         <v>0.35</v>
@@ -8425,7 +8425,7 @@
         <v>11</v>
       </c>
       <c r="K161" t="n">
-        <v>40</v>
+        <v>1034.150808298965</v>
       </c>
       <c r="L161" t="n">
         <v>0.35</v>
@@ -8625,7 +8625,7 @@
         <v>11</v>
       </c>
       <c r="K165" t="n">
-        <v>40</v>
+        <v>1048.415631233094</v>
       </c>
       <c r="L165" t="n">
         <v>0.35</v>
@@ -8825,7 +8825,7 @@
         <v>11</v>
       </c>
       <c r="K169" t="n">
-        <v>40</v>
+        <v>1062.488953976638</v>
       </c>
       <c r="L169" t="n">
         <v>0.35</v>
@@ -9025,7 +9025,7 @@
         <v>11</v>
       </c>
       <c r="K173" t="n">
-        <v>40</v>
+        <v>1076.378287978187</v>
       </c>
       <c r="L173" t="n">
         <v>0.35</v>
@@ -9225,7 +9225,7 @@
         <v>11</v>
       </c>
       <c r="K177" t="n">
-        <v>40</v>
+        <v>1090.09066610963</v>
       </c>
       <c r="L177" t="n">
         <v>0.35</v>
@@ -9425,7 +9425,7 @@
         <v>11</v>
       </c>
       <c r="K181" t="n">
-        <v>40</v>
+        <v>1103.632684296646</v>
       </c>
       <c r="L181" t="n">
         <v>0.35</v>
@@ -9625,7 +9625,7 @@
         <v>11</v>
       </c>
       <c r="K185" t="n">
-        <v>40</v>
+        <v>1117.010538605748</v>
       </c>
       <c r="L185" t="n">
         <v>0.35</v>
@@ -9825,7 +9825,7 @@
         <v>11</v>
       </c>
       <c r="K189" t="n">
-        <v>40</v>
+        <v>1130.230058379615</v>
       </c>
       <c r="L189" t="n">
         <v>0.35</v>
@@ -10025,7 +10025,7 @@
         <v>11</v>
       </c>
       <c r="K193" t="n">
-        <v>40</v>
+        <v>1143.296735923474</v>
       </c>
       <c r="L193" t="n">
         <v>0.35</v>
@@ -10225,7 +10225,7 @@
         <v>11</v>
       </c>
       <c r="K197" t="n">
-        <v>40</v>
+        <v>1156.21575317142</v>
       </c>
       <c r="L197" t="n">
         <v>0.35</v>
@@ -10425,7 +10425,7 @@
         <v>11</v>
       </c>
       <c r="K201" t="n">
-        <v>40</v>
+        <v>1168.992005699884</v>
       </c>
       <c r="L201" t="n">
         <v>0.35</v>
@@ -10625,7 +10625,7 @@
         <v>11</v>
       </c>
       <c r="K205" t="n">
-        <v>40</v>
+        <v>1181.630124403877</v>
       </c>
       <c r="L205" t="n">
         <v>0.35</v>
@@ -10825,7 +10825,7 @@
         <v>11</v>
       </c>
       <c r="K209" t="n">
-        <v>40</v>
+        <v>1194.134495108153</v>
       </c>
       <c r="L209" t="n">
         <v>0.35</v>
@@ -11025,7 +11025,7 @@
         <v>11</v>
       </c>
       <c r="K213" t="n">
-        <v>40</v>
+        <v>1206.509276348793</v>
       </c>
       <c r="L213" t="n">
         <v>0.35</v>
@@ -11225,7 +11225,7 @@
         <v>11</v>
       </c>
       <c r="K217" t="n">
-        <v>40</v>
+        <v>1218.75841552958</v>
       </c>
       <c r="L217" t="n">
         <v>0.35</v>
@@ -11425,7 +11425,7 @@
         <v>11</v>
       </c>
       <c r="K221" t="n">
-        <v>40</v>
+        <v>1230.885663631133</v>
       </c>
       <c r="L221" t="n">
         <v>0.35</v>
@@ -11625,7 +11625,7 @@
         <v>11</v>
       </c>
       <c r="K225" t="n">
-        <v>40</v>
+        <v>1242.89458862815</v>
       </c>
       <c r="L225" t="n">
         <v>0.35</v>
@@ -11825,7 +11825,7 @@
         <v>11</v>
       </c>
       <c r="K229" t="n">
-        <v>40</v>
+        <v>1254.78858775079</v>
       </c>
       <c r="L229" t="n">
         <v>0.35</v>
@@ -12025,7 +12025,7 @@
         <v>11</v>
       </c>
       <c r="K233" t="n">
-        <v>40</v>
+        <v>1266.570898709624</v>
       </c>
       <c r="L233" t="n">
         <v>0.35</v>
@@ -12225,7 +12225,7 @@
         <v>11</v>
       </c>
       <c r="K237" t="n">
-        <v>40</v>
+        <v>1278.244609989257</v>
       </c>
       <c r="L237" t="n">
         <v>0.35</v>
@@ -12425,7 +12425,7 @@
         <v>11</v>
       </c>
       <c r="K241" t="n">
-        <v>40</v>
+        <v>1289.812670303355</v>
       </c>
       <c r="L241" t="n">
         <v>0.35</v>
@@ -12625,7 +12625,7 @@
         <v>11</v>
       </c>
       <c r="K245" t="n">
-        <v>40</v>
+        <v>1301.277897293101</v>
       </c>
       <c r="L245" t="n">
         <v>0.35</v>
@@ -12825,7 +12825,7 @@
         <v>11</v>
       </c>
       <c r="K249" t="n">
-        <v>40</v>
+        <v>1312.64298554178</v>
       </c>
       <c r="L249" t="n">
         <v>0.35</v>
@@ -13025,7 +13025,7 @@
         <v>11</v>
       </c>
       <c r="K253" t="n">
-        <v>40</v>
+        <v>1323.91051397008</v>
       </c>
       <c r="L253" t="n">
         <v>0.35</v>
@@ -13225,7 +13225,7 @@
         <v>11</v>
       </c>
       <c r="K257" t="n">
-        <v>40</v>
+        <v>1335.08295266961</v>
       </c>
       <c r="L257" t="n">
         <v>0.35</v>
@@ -13425,7 +13425,7 @@
         <v>11</v>
       </c>
       <c r="K261" t="n">
-        <v>40</v>
+        <v>1346.162669225933</v>
       </c>
       <c r="L261" t="n">
         <v>0.35</v>
@@ -13625,7 +13625,7 @@
         <v>11</v>
       </c>
       <c r="K265" t="n">
-        <v>40</v>
+        <v>1357.151934576955</v>
       </c>
       <c r="L265" t="n">
         <v>0.35</v>
@@ -13825,7 +13825,7 @@
         <v>11</v>
       </c>
       <c r="K269" t="n">
-        <v>40</v>
+        <v>1368.052928447747</v>
       </c>
       <c r="L269" t="n">
         <v>0.35</v>
@@ -14025,7 +14025,7 @@
         <v>11</v>
       </c>
       <c r="K273" t="n">
-        <v>40</v>
+        <v>1378.867744398621</v>
       </c>
       <c r="L273" t="n">
         <v>0.35</v>
@@ -14225,7 +14225,7 @@
         <v>11</v>
       </c>
       <c r="K277" t="n">
-        <v>40</v>
+        <v>1389.59839451959</v>
       </c>
       <c r="L277" t="n">
         <v>0.35</v>
@@ -14425,7 +14425,7 @@
         <v>11</v>
       </c>
       <c r="K281" t="n">
-        <v>40</v>
+        <v>1400.246813801019</v>
       </c>
       <c r="L281" t="n">
         <v>0.35</v>
@@ -14625,7 +14625,7 @@
         <v>11</v>
       </c>
       <c r="K285" t="n">
-        <v>40</v>
+        <v>1410.814864207345</v>
       </c>
       <c r="L285" t="n">
         <v>0.35</v>
@@ -14825,7 +14825,7 @@
         <v>11</v>
       </c>
       <c r="K289" t="n">
-        <v>40</v>
+        <v>1421.304338478172</v>
       </c>
       <c r="L289" t="n">
         <v>0.35</v>
@@ -15025,7 +15025,7 @@
         <v>11</v>
       </c>
       <c r="K293" t="n">
-        <v>40</v>
+        <v>1431.7169636787</v>
       </c>
       <c r="L293" t="n">
         <v>0.35</v>
@@ -15225,7 +15225,7 @@
         <v>11</v>
       </c>
       <c r="K297" t="n">
-        <v>40</v>
+        <v>1442.054404519413</v>
       </c>
       <c r="L297" t="n">
         <v>0.35</v>
@@ -15425,7 +15425,7 @@
         <v>11</v>
       </c>
       <c r="K301" t="n">
-        <v>40</v>
+        <v>1452.318266463079</v>
       </c>
       <c r="L301" t="n">
         <v>0.35</v>
@@ -15625,7 +15625,7 @@
         <v>11</v>
       </c>
       <c r="K305" t="n">
-        <v>40</v>
+        <v>1462.510098635495</v>
       </c>
       <c r="L305" t="n">
         <v>0.35</v>
@@ -15825,7 +15825,7 @@
         <v>11</v>
       </c>
       <c r="K309" t="n">
-        <v>40</v>
+        <v>1472.631396554919</v>
       </c>
       <c r="L309" t="n">
         <v>0.35</v>
@@ -16025,7 +16025,7 @@
         <v>11</v>
       </c>
       <c r="K313" t="n">
-        <v>40</v>
+        <v>1482.683604693791</v>
       </c>
       <c r="L313" t="n">
         <v>0.35</v>
@@ -16225,7 +16225,7 @@
         <v>11</v>
       </c>
       <c r="K317" t="n">
-        <v>40</v>
+        <v>1492.668118885192</v>
       </c>
       <c r="L317" t="n">
         <v>0.35</v>
@@ -16425,7 +16425,7 @@
         <v>11</v>
       </c>
       <c r="K321" t="n">
-        <v>40</v>
+        <v>1502.586288585364</v>
       </c>
       <c r="L321" t="n">
         <v>0.35</v>
@@ -16625,7 +16625,7 @@
         <v>11</v>
       </c>
       <c r="K325" t="n">
-        <v>40</v>
+        <v>1512.4394190027</v>
       </c>
       <c r="L325" t="n">
         <v>0.35</v>
@@ -16825,7 +16825,7 @@
         <v>11</v>
       </c>
       <c r="K329" t="n">
-        <v>40</v>
+        <v>1522.228773102685</v>
       </c>
       <c r="L329" t="n">
         <v>0.35</v>
@@ -17025,7 +17025,7 @@
         <v>11</v>
       </c>
       <c r="K333" t="n">
-        <v>40</v>
+        <v>1531.955573497544</v>
       </c>
       <c r="L333" t="n">
         <v>0.35</v>
@@ -17225,7 +17225,7 @@
         <v>11</v>
       </c>
       <c r="K337" t="n">
-        <v>40</v>
+        <v>1541.62100422856</v>
       </c>
       <c r="L337" t="n">
         <v>0.35</v>
@@ -17425,7 +17425,7 @@
         <v>11</v>
       </c>
       <c r="K341" t="n">
-        <v>40</v>
+        <v>1551.226212448448</v>
       </c>
       <c r="L341" t="n">
         <v>0.35</v>
@@ -17625,7 +17625,7 @@
         <v>11</v>
       </c>
       <c r="K345" t="n">
-        <v>40</v>
+        <v>1560.772310010541</v>
       </c>
       <c r="L345" t="n">
         <v>0.35</v>
@@ -17825,7 +17825,7 @@
         <v>11</v>
       </c>
       <c r="K349" t="n">
-        <v>40</v>
+        <v>1570.260374971019</v>
       </c>
       <c r="L349" t="n">
         <v>0.35</v>
@@ -18025,7 +18025,7 @@
         <v>11</v>
       </c>
       <c r="K353" t="n">
-        <v>40</v>
+        <v>1579.691453009925</v>
       </c>
       <c r="L353" t="n">
         <v>0.35</v>
@@ -18225,7 +18225,7 @@
         <v>11</v>
       </c>
       <c r="K357" t="n">
-        <v>40</v>
+        <v>1589.066558776281</v>
       </c>
       <c r="L357" t="n">
         <v>0.35</v>
@@ -18425,7 +18425,7 @@
         <v>11</v>
       </c>
       <c r="K361" t="n">
-        <v>40</v>
+        <v>1598.386677162186</v>
       </c>
       <c r="L361" t="n">
         <v>0.35</v>
@@ -18625,7 +18625,7 @@
         <v>11</v>
       </c>
       <c r="K365" t="n">
-        <v>40</v>
+        <v>1607.652764510439</v>
       </c>
       <c r="L365" t="n">
         <v>0.35</v>
@@ -18825,7 +18825,7 @@
         <v>11</v>
       </c>
       <c r="K369" t="n">
-        <v>40</v>
+        <v>1616.865749759868</v>
       </c>
       <c r="L369" t="n">
         <v>0.35</v>
@@ -19025,7 +19025,7 @@
         <v>11</v>
       </c>
       <c r="K373" t="n">
-        <v>40</v>
+        <v>1626.026535532254</v>
       </c>
       <c r="L373" t="n">
         <v>0.35</v>
@@ -19225,7 +19225,7 @@
         <v>11</v>
       </c>
       <c r="K377" t="n">
-        <v>40</v>
+        <v>1635.135999164445</v>
       </c>
       <c r="L377" t="n">
         <v>0.35</v>
@@ -19425,7 +19425,7 @@
         <v>11</v>
       </c>
       <c r="K381" t="n">
-        <v>40</v>
+        <v>1644.194993689006</v>
       </c>
       <c r="L381" t="n">
         <v>0.35</v>
@@ -19625,7 +19625,7 @@
         <v>11</v>
       </c>
       <c r="K385" t="n">
-        <v>40</v>
+        <v>1653.204348766502</v>
       </c>
       <c r="L385" t="n">
         <v>0.35</v>
@@ -19825,7 +19825,7 @@
         <v>11</v>
       </c>
       <c r="K389" t="n">
-        <v>40</v>
+        <v>1662.164871572299</v>
       </c>
       <c r="L389" t="n">
         <v>0.35</v>
@@ -20025,7 +20025,7 @@
         <v>11</v>
       </c>
       <c r="K393" t="n">
-        <v>40</v>
+        <v>1671.07734764057</v>
       </c>
       <c r="L393" t="n">
         <v>0.35</v>
@@ -20225,7 +20225,7 @@
         <v>11</v>
       </c>
       <c r="K397" t="n">
-        <v>40</v>
+        <v>1679.942541667996</v>
       </c>
       <c r="L397" t="n">
         <v>0.35</v>
@@ -20425,7 +20425,7 @@
         <v>11</v>
       </c>
       <c r="K401" t="n">
-        <v>40</v>
+        <v>1688.761198279499</v>
       </c>
       <c r="L401" t="n">
         <v>0.35</v>
@@ -20625,7 +20625,7 @@
         <v>11</v>
       </c>
       <c r="K405" t="n">
-        <v>40</v>
+        <v>1697.534042758169</v>
       </c>
       <c r="L405" t="n">
         <v>0.35</v>
@@ -20825,7 +20825,7 @@
         <v>11</v>
       </c>
       <c r="K409" t="n">
-        <v>40</v>
+        <v>1706.261781741411</v>
       </c>
       <c r="L409" t="n">
         <v>0.35</v>
@@ -21025,7 +21025,7 @@
         <v>11</v>
       </c>
       <c r="K413" t="n">
-        <v>40</v>
+        <v>1714.945103885211</v>
       </c>
       <c r="L413" t="n">
         <v>0.35</v>
@@ -21225,7 +21225,7 @@
         <v>11</v>
       </c>
       <c r="K417" t="n">
-        <v>40</v>
+        <v>1719.27031908717</v>
       </c>
       <c r="L417" t="n">
         <v>0.35</v>
@@ -21425,7 +21425,7 @@
         <v>11</v>
       </c>
       <c r="K421" t="n">
-        <v>40</v>
+        <v>1723.498499109662</v>
       </c>
       <c r="L421" t="n">
         <v>0.35</v>
@@ -21625,7 +21625,7 @@
         <v>11</v>
       </c>
       <c r="K425" t="n">
-        <v>40</v>
+        <v>1985.659025940517</v>
       </c>
       <c r="L425" t="n">
         <v>0.35</v>
@@ -21825,7 +21825,7 @@
         <v>11</v>
       </c>
       <c r="K429" t="n">
-        <v>40</v>
+        <v>2247.819552771371</v>
       </c>
       <c r="L429" t="n">
         <v>0.35</v>
@@ -22025,7 +22025,7 @@
         <v>11</v>
       </c>
       <c r="K433" t="n">
-        <v>40</v>
+        <v>2509.980079602226</v>
       </c>
       <c r="L433" t="n">
         <v>0.35</v>

--- a/research/semiconfined_df_particle_Modflow.xlsx
+++ b/research/semiconfined_df_particle_Modflow.xlsx
@@ -379,7 +379,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>travel_time_zone</t>
+          <t>travel_time</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/research/semiconfined_df_particle_Modflow.xlsx
+++ b/research/semiconfined_df_particle_Modflow.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -22044,6 +22111,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>